--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3040.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3040.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.05048965186903</v>
+        <v>0.491755872964859</v>
       </c>
       <c r="B1">
-        <v>-1</v>
+        <v>2.56944751739502</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>6.328853130340576</v>
       </c>
       <c r="D1">
-        <v>-1</v>
+        <v>1.54465115070343</v>
       </c>
       <c r="E1">
-        <v>1.064244207005326</v>
+        <v>0.8915167450904846</v>
       </c>
     </row>
   </sheetData>
